--- a/ch9/memo5/analysis.xlsx
+++ b/ch9/memo5/analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="24000" tabRatio="500"/>
+    <workbookView windowWidth="17145" windowHeight="23115" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>requests</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>memo</t>
     </r>
     <r>
@@ -76,6 +82,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">cache </t>
     </r>
     <r>
@@ -93,6 +105,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>遍历</t>
     </r>
     <r>
@@ -143,6 +161,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>调用</t>
     </r>
     <r>
@@ -284,8 +308,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -304,6 +328,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="SimSun"/>
       <charset val="0"/>
@@ -318,14 +356,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="SimSun"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="SimSun"/>
       <charset val="134"/>
@@ -340,33 +378,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="SimSun"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="SimSun"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="SimSun"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="SimSun"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,16 +395,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="SimSun"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="SimSun"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,20 +432,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="SimSun"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="SimSun"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -439,11 +440,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="SimSun"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="SimSun"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="SimSun"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="SimSun"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,7 +487,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,13 +571,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,55 +595,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,43 +619,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,43 +661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,31 +694,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,158 +754,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -989,8 +1013,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13164185" y="3107055"/>
-          <a:ext cx="9746615" cy="2597785"/>
+          <a:off x="12344400" y="3297555"/>
+          <a:ext cx="9164955" cy="2759710"/>
           <a:chOff x="520" y="530"/>
           <a:chExt cx="15317" cy="4011"/>
         </a:xfrm>
@@ -999,7 +1023,7 @@
         <xdr:nvGrpSpPr>
           <xdr:cNvPr id="14" name="组1"/>
           <xdr:cNvGrpSpPr>
-            <a:grpSpLocks noChangeAspect="1"/>
+            <a:grpSpLocks noChangeAspect="true"/>
           </xdr:cNvGrpSpPr>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1037,7 +1061,7 @@
             <a:effectLst/>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" anchor="ctr" upright="1"/>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" anchor="ctr" upright="true"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" defTabSz="360045" rtl="0">
@@ -1048,9 +1072,9 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                   <a:ea typeface="宋体" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 </a:rPr>
                 <a:t>Memo	</a:t>
               </a:r>
@@ -1058,9 +1082,9 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 <a:ea typeface="宋体" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1092,7 +1116,7 @@
             <a:effectLst/>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" anchor="ctr" upright="1"/>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" anchor="ctr" upright="true"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" defTabSz="360045" rtl="0">
@@ -1103,9 +1127,9 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                   <a:ea typeface="宋体" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 </a:rPr>
                 <a:t>requests 		chan		request</a:t>
               </a:r>
@@ -1113,9 +1137,9 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 <a:ea typeface="宋体" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1125,7 +1149,7 @@
         <xdr:nvGrpSpPr>
           <xdr:cNvPr id="11" name="组2"/>
           <xdr:cNvGrpSpPr>
-            <a:grpSpLocks noChangeAspect="1"/>
+            <a:grpSpLocks noChangeAspect="true"/>
           </xdr:cNvGrpSpPr>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1163,7 +1187,7 @@
             <a:effectLst/>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" anchor="ctr" upright="1"/>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" anchor="ctr" upright="true"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" defTabSz="360045" rtl="0">
@@ -1174,9 +1198,9 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                   <a:ea typeface="宋体" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 </a:rPr>
                 <a:t>request</a:t>
               </a:r>
@@ -1184,9 +1208,9 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 <a:ea typeface="宋体" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1218,7 +1242,7 @@
             <a:effectLst/>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" anchor="ctr" upright="1"/>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" anchor="ctr" upright="true"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" defTabSz="360045" rtl="0">
@@ -1229,9 +1253,9 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                   <a:ea typeface="宋体" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 </a:rPr>
                 <a:t>key 			string</a:t>
               </a:r>
@@ -1239,9 +1263,9 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 <a:ea typeface="宋体" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:endParaRPr>
             </a:p>
             <a:p>
@@ -1253,9 +1277,9 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                   <a:ea typeface="宋体" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 </a:rPr>
                 <a:t>response 		chan&lt;-	result</a:t>
               </a:r>
@@ -1263,9 +1287,9 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 <a:ea typeface="宋体" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1275,7 +1299,7 @@
         <xdr:nvGrpSpPr>
           <xdr:cNvPr id="8" name="组3"/>
           <xdr:cNvGrpSpPr>
-            <a:grpSpLocks noChangeAspect="1"/>
+            <a:grpSpLocks noChangeAspect="true"/>
           </xdr:cNvGrpSpPr>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1313,7 +1337,7 @@
             <a:effectLst/>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" anchor="ctr" upright="1"/>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" anchor="ctr" upright="true"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" defTabSz="360045" rtl="0">
@@ -1324,9 +1348,9 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                   <a:ea typeface="宋体" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 </a:rPr>
                 <a:t>entry</a:t>
               </a:r>
@@ -1334,9 +1358,9 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 <a:ea typeface="宋体" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1368,7 +1392,7 @@
             <a:effectLst/>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" anchor="ctr" upright="1"/>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" anchor="ctr" upright="true"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" defTabSz="360045" rtl="0">
@@ -1379,9 +1403,9 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                   <a:ea typeface="宋体" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 </a:rPr>
                 <a:t>res 			result</a:t>
               </a:r>
@@ -1389,9 +1413,9 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 <a:ea typeface="宋体" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:endParaRPr>
             </a:p>
             <a:p>
@@ -1403,19 +1427,19 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                   <a:ea typeface="宋体" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 </a:rPr>
-                <a:t>ready 			chan		struct{}</a:t>
+                <a:t>ready 		chan		struct{}</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="100" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 <a:ea typeface="宋体" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1425,7 +1449,7 @@
         <xdr:nvGrpSpPr>
           <xdr:cNvPr id="5" name="组4"/>
           <xdr:cNvGrpSpPr>
-            <a:grpSpLocks noChangeAspect="1"/>
+            <a:grpSpLocks noChangeAspect="true"/>
           </xdr:cNvGrpSpPr>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1463,7 +1487,7 @@
             <a:effectLst/>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" anchor="ctr" upright="1"/>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" anchor="ctr" upright="true"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" defTabSz="360045" rtl="0">
@@ -1474,9 +1498,9 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                   <a:ea typeface="宋体" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 </a:rPr>
                 <a:t>result</a:t>
               </a:r>
@@ -1484,9 +1508,9 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 <a:ea typeface="宋体" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1518,7 +1542,7 @@
             <a:effectLst/>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" anchor="ctr" upright="1"/>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" anchor="ctr" upright="true"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" defTabSz="360045" rtl="0">
@@ -1529,19 +1553,19 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                   <a:ea typeface="宋体" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 </a:rPr>
-                <a:t>value 			interface{}</a:t>
+                <a:t>value 		interface{}</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="100" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 <a:ea typeface="宋体" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:endParaRPr>
             </a:p>
             <a:p>
@@ -1553,9 +1577,9 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                   <a:ea typeface="宋体" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 </a:rPr>
                 <a:t>err			error</a:t>
               </a:r>
@@ -1563,9 +1587,9 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202090204" pitchFamily="7" charset="0"/>
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 <a:ea typeface="宋体" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020503050405090304" pitchFamily="1" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1627,7 +1651,7 @@
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
+          <a:xfrm flipH="true">
             <a:off x="11361" y="2108"/>
             <a:ext cx="1629" cy="1249"/>
           </a:xfrm>
@@ -1666,7 +1690,7 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="图片 16"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1677,8 +1701,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7539990" y="4120515"/>
-          <a:ext cx="4205605" cy="2581275"/>
+          <a:off x="7095490" y="4377690"/>
+          <a:ext cx="3938905" cy="2733675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1708,7 +1732,7 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="18" name="图片 17"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1719,8 +1743,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7528560" y="6855460"/>
-          <a:ext cx="4314825" cy="1562100"/>
+          <a:off x="7084060" y="7274560"/>
+          <a:ext cx="4048125" cy="1666875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1750,7 +1774,7 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="19" name="图片 18"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1761,8 +1785,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7505065" y="13148310"/>
-          <a:ext cx="4219575" cy="3114675"/>
+          <a:off x="7060565" y="14205585"/>
+          <a:ext cx="3952875" cy="3305175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1792,7 +1816,7 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="20" name="图片 19"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1803,8 +1827,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7527925" y="8588375"/>
-          <a:ext cx="4513580" cy="4275455"/>
+          <a:off x="7083425" y="9121775"/>
+          <a:ext cx="4246880" cy="4780280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1834,7 +1858,7 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="21" name="图片 20"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1845,8 +1869,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="415925" y="4112260"/>
-          <a:ext cx="6727190" cy="12048490"/>
+          <a:off x="415925" y="4359910"/>
+          <a:ext cx="6282690" cy="13048615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1879,8 +1903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7562215" y="6005195"/>
-          <a:ext cx="777240" cy="188595"/>
+          <a:off x="7117715" y="6376670"/>
+          <a:ext cx="732790" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1912,7 +1936,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -1953,8 +1977,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="434340" y="8621395"/>
-          <a:ext cx="777240" cy="188595"/>
+          <a:off x="434340" y="9154795"/>
+          <a:ext cx="732790" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1986,7 +2010,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -2123,7 +2147,7 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="24" name="图片 23"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2134,8 +2158,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7745095" y="3033395"/>
-          <a:ext cx="3575050" cy="1000125"/>
+          <a:off x="7300595" y="3214370"/>
+          <a:ext cx="3352800" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2168,8 +2192,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8554720" y="3604260"/>
-          <a:ext cx="381000" cy="2426970"/>
+          <a:off x="8021320" y="3823335"/>
+          <a:ext cx="381000" cy="2579370"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2215,8 +2239,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="429260" y="8839200"/>
-          <a:ext cx="777240" cy="182880"/>
+          <a:off x="429260" y="9385935"/>
+          <a:ext cx="732790" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2248,7 +2272,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -2355,6 +2379,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>a3</a:t>
           </a:r>
@@ -2362,6 +2388,8 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2388,8 +2416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="429260" y="11574780"/>
-          <a:ext cx="777240" cy="179070"/>
+          <a:off x="429260" y="12479655"/>
+          <a:ext cx="732790" cy="245745"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2421,7 +2449,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -2528,6 +2556,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>a3_1</a:t>
           </a:r>
@@ -2535,6 +2565,8 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2561,8 +2593,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3604895" y="7125335"/>
-          <a:ext cx="2998470" cy="1000760"/>
+          <a:off x="3382645" y="7563485"/>
+          <a:ext cx="2820670" cy="1067435"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2608,6 +2640,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>memo.server(httpGetBody)</a:t>
           </a:r>
@@ -2615,6 +2649,8 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -2622,6 +2658,8 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -2630,13 +2668,37 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>自此一个协程运行起来了，专门处理所有收到的请求，而所有的请求都在存放在：</a:t>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>自此一个协程运行起来了，通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>channel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>阻塞机制排队处理所有收到的请求：</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -2645,6 +2707,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>channel </a:t>
           </a:r>
@@ -2653,6 +2717,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>：</a:t>
           </a:r>
@@ -2661,6 +2727,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>memo.requests</a:t>
           </a:r>
@@ -2669,6 +2737,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
@@ -2676,6 +2746,8 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2702,8 +2774,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="429260" y="11789410"/>
-          <a:ext cx="777240" cy="188595"/>
+          <a:off x="429260" y="12760960"/>
+          <a:ext cx="732790" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2735,7 +2807,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -2842,6 +2914,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>a3_2</a:t>
           </a:r>
@@ -2849,6 +2923,8 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2875,8 +2951,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4785995" y="11195685"/>
-          <a:ext cx="2038350" cy="820420"/>
+          <a:off x="4519295" y="12033885"/>
+          <a:ext cx="1905000" cy="963295"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -3019,6 +3095,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>memo.</a:t>
           </a:r>
@@ -3027,6 +3105,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>requests </a:t>
           </a:r>
@@ -3035,6 +3115,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>一开始是</a:t>
           </a:r>
@@ -3043,6 +3125,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>block </a:t>
           </a:r>
@@ -3051,6 +3135,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>在这里的，直到【</a:t>
           </a:r>
@@ -3059,6 +3145,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>b</a:t>
           </a:r>
@@ -3067,6 +3155,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>5</a:t>
           </a:r>
@@ -3075,6 +3165,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>】被执行，任督二脉打通，代码进入新纪元</a:t>
           </a:r>
@@ -3082,6 +3174,8 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -3108,8 +3202,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="436245" y="9048115"/>
-          <a:ext cx="777240" cy="188595"/>
+          <a:off x="436245" y="9610090"/>
+          <a:ext cx="732790" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3138,7 +3232,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -3245,6 +3339,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>b</a:t>
           </a:r>
@@ -3253,6 +3349,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
@@ -3260,6 +3358,8 @@
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -3286,8 +3386,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7584440" y="10079355"/>
-          <a:ext cx="643890" cy="190500"/>
+          <a:off x="7139940" y="10803255"/>
+          <a:ext cx="599440" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3316,7 +3416,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -3423,6 +3523,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>b3</a:t>
           </a:r>
@@ -3430,6 +3532,8 @@
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -3456,8 +3560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7256780" y="14542135"/>
-          <a:ext cx="643890" cy="200025"/>
+          <a:off x="6812280" y="15685135"/>
+          <a:ext cx="599440" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3486,7 +3590,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -3593,6 +3697,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>b4</a:t>
           </a:r>
@@ -3600,6 +3706,8 @@
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -3626,8 +3734,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8206740" y="10880090"/>
-          <a:ext cx="643890" cy="200025"/>
+          <a:off x="7717790" y="11699240"/>
+          <a:ext cx="599440" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3656,7 +3764,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -3763,6 +3871,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>b5</a:t>
           </a:r>
@@ -3770,6 +3880,8 @@
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -3796,8 +3908,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="513715" y="10004425"/>
-          <a:ext cx="643890" cy="200025"/>
+          <a:off x="513715" y="10671175"/>
+          <a:ext cx="599440" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3826,7 +3938,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -3933,6 +4045,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>b6</a:t>
           </a:r>
@@ -3940,6 +4054,8 @@
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -3950,14 +4066,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>114935</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>147320</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3966,8 +4082,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4165600" y="8801735"/>
-          <a:ext cx="2701925" cy="794385"/>
+          <a:off x="3943350" y="9449435"/>
+          <a:ext cx="2524125" cy="808990"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -4110,6 +4226,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>从内存开辟空间，用已知的</a:t>
           </a:r>
@@ -4118,6 +4236,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>key</a:t>
           </a:r>
@@ -4126,6 +4246,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>和空</a:t>
           </a:r>
@@ -4134,6 +4256,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t> response</a:t>
           </a:r>
@@ -4142,6 +4266,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>（</a:t>
           </a:r>
@@ -4150,6 +4276,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>result</a:t>
           </a:r>
@@ -4158,6 +4286,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>）</a:t>
           </a:r>
@@ -4166,6 +4296,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
@@ -4174,6 +4306,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>构建</a:t>
           </a:r>
@@ -4182,6 +4316,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t> request </a:t>
           </a:r>
@@ -4190,6 +4326,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>并把它塞入：</a:t>
           </a:r>
@@ -4197,6 +4335,8 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -4205,6 +4345,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>memo.requests</a:t>
           </a:r>
@@ -4212,6 +4354,8 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -4220,16 +4364,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>328930</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281305</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>179705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>233045</xdr:colOff>
+      <xdr:colOff>601345</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>73660</xdr:rowOff>
+      <xdr:rowOff>140335</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4238,15 +4382,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4596130" y="10237470"/>
-          <a:ext cx="2037715" cy="656590"/>
+          <a:off x="3615055" y="10962005"/>
+          <a:ext cx="2987040" cy="817880"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val 69585"/>
             <a:gd name="adj2" fmla="val 572"/>
-            <a:gd name="adj3" fmla="val 14595"/>
-            <a:gd name="adj4" fmla="val -76252"/>
+            <a:gd name="adj3" fmla="val 14573"/>
+            <a:gd name="adj4" fmla="val -25808"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -4382,6 +4526,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>把刚塞进</a:t>
           </a:r>
@@ -4390,6 +4536,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t> memo</a:t>
           </a:r>
@@ -4398,6 +4546,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
@@ -4406,22 +4556,38 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>里的</a:t>
           </a:r>
           <a:r>
+            <a:rPr lang="" altLang="zh-CN">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>r</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>response</a:t>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>esponse</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>（空的</a:t>
           </a:r>
@@ -4430,6 +4596,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>result</a:t>
           </a:r>
@@ -4438,6 +4606,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>）</a:t>
           </a:r>
@@ -4446,6 +4616,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
@@ -4454,14 +4626,18 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>塞入</a:t>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>取值赋给</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t> res</a:t>
           </a:r>
@@ -4470,13 +4646,126 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>，返回</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>，没取到值就</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>block</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>直到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="zh-CN">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>server-&gt;call/deliver</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="zh-CN">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="" altLang="zh-CN">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>response</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>获得值，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>block</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>消失，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>return</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -4503,8 +4792,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="2700000">
-          <a:off x="1407160" y="10918825"/>
-          <a:ext cx="3260725" cy="188595"/>
+          <a:off x="1010285" y="11718925"/>
+          <a:ext cx="3698875" cy="188595"/>
         </a:xfrm>
         <a:prstGeom prst="mathEqual">
           <a:avLst/>
@@ -4534,6 +4823,8 @@
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -4560,8 +4851,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2219325" y="12786360"/>
-          <a:ext cx="626745" cy="179070"/>
+          <a:off x="2085975" y="13815060"/>
+          <a:ext cx="582295" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4590,7 +4881,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -4697,6 +4988,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>c1</a:t>
           </a:r>
@@ -4704,6 +4997,8 @@
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -4730,8 +5025,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7566660" y="7312660"/>
-          <a:ext cx="610235" cy="179070"/>
+          <a:off x="7122160" y="7760335"/>
+          <a:ext cx="565785" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4760,7 +5055,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -4867,6 +5162,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>c</a:t>
           </a:r>
@@ -4875,6 +5172,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>3</a:t>
           </a:r>
@@ -4882,6 +5181,8 @@
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -4908,8 +5209,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="589915" y="14361160"/>
-          <a:ext cx="626745" cy="188595"/>
+          <a:off x="589915" y="15494635"/>
+          <a:ext cx="582295" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4938,7 +5239,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -5045,6 +5346,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>c</a:t>
           </a:r>
@@ -5053,6 +5356,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
@@ -5060,6 +5365,8 @@
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -5086,8 +5393,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="589915" y="14591665"/>
-          <a:ext cx="626745" cy="188595"/>
+          <a:off x="589915" y="15734665"/>
+          <a:ext cx="582295" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -5116,7 +5423,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -5223,6 +5530,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>c</a:t>
           </a:r>
@@ -5231,6 +5540,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>4</a:t>
           </a:r>
@@ -5238,6 +5549,8 @@
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -5264,8 +5577,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1426845" y="13184505"/>
-          <a:ext cx="582295" cy="188595"/>
+          <a:off x="1337945" y="14241780"/>
+          <a:ext cx="582295" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -5294,7 +5607,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -5401,6 +5714,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>d</a:t>
           </a:r>
@@ -5409,6 +5724,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
@@ -5416,6 +5733,8 @@
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -5442,8 +5761,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="581660" y="15555595"/>
-          <a:ext cx="626110" cy="187960"/>
+          <a:off x="581660" y="16765270"/>
+          <a:ext cx="581660" cy="197485"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -5472,7 +5791,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -5579,6 +5898,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>d2</a:t>
           </a:r>
@@ -5586,6 +5907,8 @@
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -5612,8 +5935,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="581660" y="15751810"/>
-          <a:ext cx="626110" cy="187960"/>
+          <a:off x="581660" y="16971010"/>
+          <a:ext cx="581660" cy="197485"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -5642,7 +5965,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -5749,6 +6072,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>d3</a:t>
           </a:r>
@@ -5756,6 +6081,8 @@
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -5765,15 +6092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>604520</xdr:colOff>
+      <xdr:colOff>603250</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>58420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>93345</xdr:rowOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5782,8 +6109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4871720" y="13012420"/>
-          <a:ext cx="2164080" cy="949325"/>
+          <a:off x="4603750" y="14060170"/>
+          <a:ext cx="2032000" cy="1373505"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -5926,6 +6253,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>如果</a:t>
           </a:r>
@@ -5934,6 +6263,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>cache</a:t>
           </a:r>
@@ -5942,6 +6273,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>里没有这个</a:t>
           </a:r>
@@ -5950,6 +6283,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>url</a:t>
           </a:r>
@@ -5958,6 +6293,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>，这个</a:t>
           </a:r>
@@ -5966,6 +6303,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>key</a:t>
           </a:r>
@@ -5974,6 +6313,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>的</a:t>
           </a:r>
@@ -5982,6 +6323,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>value</a:t>
           </a:r>
@@ -5990,6 +6333,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>，那么就执行</a:t>
           </a:r>
@@ -5998,6 +6343,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t> entry.call()</a:t>
           </a:r>
@@ -6006,6 +6353,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>，也就是</a:t>
           </a:r>
@@ -6014,6 +6363,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>e.f(key)</a:t>
           </a:r>
@@ -6022,6 +6373,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>，也就是</a:t>
           </a:r>
@@ -6030,6 +6383,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t> httpGetBody(key), </a:t>
           </a:r>
@@ -6038,6 +6393,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>讲返回值交给</a:t>
           </a:r>
@@ -6046,6 +6403,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t> entry</a:t>
           </a:r>
@@ -6054,6 +6413,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>的</a:t>
           </a:r>
@@ -6062,6 +6423,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t> res</a:t>
           </a:r>
@@ -6070,6 +6433,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
@@ -6078,6 +6443,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>的</a:t>
           </a:r>
@@ -6086,6 +6453,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>value</a:t>
           </a:r>
@@ -6094,6 +6463,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>和</a:t>
           </a:r>
@@ -6102,6 +6473,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>err</a:t>
           </a:r>
@@ -6110,6 +6483,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>。</a:t>
           </a:r>
@@ -6117,6 +6492,8 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -6142,9 +6519,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3470275" y="13650595"/>
-          <a:ext cx="1398905" cy="774065"/>
+        <a:xfrm flipH="true">
+          <a:off x="3292475" y="14736445"/>
+          <a:ext cx="1310005" cy="821690"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6175,15 +6552,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>517525</xdr:colOff>
+      <xdr:colOff>516890</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>92710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>422910</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>106045</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6192,8 +6569,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4784725" y="14570710"/>
-          <a:ext cx="2038985" cy="622935"/>
+          <a:off x="4517390" y="15713710"/>
+          <a:ext cx="1906270" cy="800735"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -6336,6 +6713,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>这里，关闭了</a:t>
           </a:r>
@@ -6344,6 +6723,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t> e.ready</a:t>
           </a:r>
@@ -6352,6 +6733,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>，那么被</a:t>
           </a:r>
@@ -6360,6 +6743,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>e.ready</a:t>
           </a:r>
@@ -6368,6 +6753,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t> block</a:t>
           </a:r>
@@ -6376,6 +6763,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>的点【</a:t>
           </a:r>
@@ -6384,6 +6773,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>d2</a:t>
           </a:r>
@@ -6392,6 +6783,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>】【</a:t>
           </a:r>
@@ -6400,6 +6793,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>d3</a:t>
           </a:r>
@@ -6408,6 +6803,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>】就可以继续通讯了</a:t>
           </a:r>
@@ -6415,6 +6812,8 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -6440,9 +6839,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2232660" y="15164435"/>
-          <a:ext cx="2569845" cy="553085"/>
+        <a:xfrm flipH="true">
+          <a:off x="2099310" y="16345535"/>
+          <a:ext cx="2436495" cy="591185"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6490,8 +6889,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7573010" y="6304280"/>
-          <a:ext cx="777240" cy="188595"/>
+          <a:off x="7128510" y="6694805"/>
+          <a:ext cx="732790" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -6520,7 +6919,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="zh-CN">
@@ -6627,6 +7026,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>b</a:t>
           </a:r>
@@ -6635,6 +7036,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
@@ -6642,6 +7045,8 @@
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -6668,8 +7073,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12547600" y="6106795"/>
-          <a:ext cx="3397250" cy="762000"/>
+          <a:off x="11791950" y="6487795"/>
+          <a:ext cx="3195955" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDrum">
           <a:avLst/>
@@ -6694,7 +7099,10 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US">
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6720,8 +7128,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12255500" y="5051425"/>
-          <a:ext cx="5676265" cy="2891155"/>
+          <a:off x="11499850" y="5365750"/>
+          <a:ext cx="5341620" cy="3072130"/>
           <a:chOff x="20720" y="6776"/>
           <a:chExt cx="10460" cy="5460"/>
         </a:xfrm>
@@ -6764,19 +7172,22 @@
         <xdr:txBody>
           <a:bodyPr/>
           <a:p>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
           <xdr:cNvPr id="49" name="文本框 48"/>
-          <xdr:cNvSpPr txBox="1"/>
+          <xdr:cNvSpPr txBox="true"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="25096" y="6776"/>
-            <a:ext cx="1134" cy="400"/>
+            <a:off x="25095" y="6776"/>
+            <a:ext cx="2105" cy="482"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6797,28 +7208,34 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              </a:rPr>
               <a:t>requests</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
           <xdr:cNvPr id="51" name="文本框 50"/>
-          <xdr:cNvSpPr txBox="1"/>
+          <xdr:cNvSpPr txBox="true"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="24978" y="7385"/>
-            <a:ext cx="1024" cy="406"/>
+            <a:off x="24975" y="7383"/>
+            <a:ext cx="1769" cy="482"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6839,7 +7256,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:p>
@@ -6849,6 +7266,8 @@
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:rPr>
               <a:t>request</a:t>
             </a:r>
@@ -6856,6 +7275,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -6997,19 +7418,22 @@
             </a:lvl9pPr>
           </a:lstStyle>
           <a:p>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
           <xdr:cNvPr id="59" name="文本框 58"/>
-          <xdr:cNvSpPr txBox="1"/>
+          <xdr:cNvSpPr txBox="true"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="24625" y="8239"/>
-            <a:ext cx="1195" cy="411"/>
+            <a:off x="24624" y="8238"/>
+            <a:ext cx="1990" cy="482"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7030,7 +7454,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle>
@@ -7139,6 +7563,8 @@
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:rPr>
               <a:t>response</a:t>
             </a:r>
@@ -7146,6 +7572,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -7287,7 +7715,10 @@
             </a:lvl9pPr>
           </a:lstStyle>
           <a:p>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -7329,7 +7760,10 @@
         <xdr:txBody>
           <a:bodyPr/>
           <a:p>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -7340,16 +7774,16 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm rot="0">
-            <a:off x="24385" y="9336"/>
-            <a:ext cx="2061" cy="1111"/>
-            <a:chOff x="23799" y="9554"/>
-            <a:chExt cx="1681" cy="725"/>
+            <a:off x="24383" y="9336"/>
+            <a:ext cx="2063" cy="1111"/>
+            <a:chOff x="23797" y="9554"/>
+            <a:chExt cx="1683" cy="725"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="58" name="文本框 57"/>
-            <xdr:cNvSpPr txBox="1"/>
+            <xdr:cNvSpPr txBox="true"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
@@ -7383,6 +7817,8 @@
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 </a:rPr>
                 <a:t>value</a:t>
               </a:r>
@@ -7390,6 +7826,8 @@
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:endParaRPr>
             </a:p>
             <a:p>
@@ -7399,6 +7837,8 @@
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 </a:rPr>
                 <a:t>err</a:t>
               </a:r>
@@ -7406,6 +7846,8 @@
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -7413,12 +7855,12 @@
         <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="56" name="文本框 55"/>
-            <xdr:cNvSpPr txBox="1"/>
+            <xdr:cNvSpPr txBox="true"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="23799" y="9645"/>
-              <a:ext cx="735" cy="276"/>
+              <a:off x="23797" y="9645"/>
+              <a:ext cx="1060" cy="315"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7548,6 +7990,8 @@
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 </a:rPr>
                 <a:t>result</a:t>
               </a:r>
@@ -7555,6 +7999,8 @@
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -7565,87 +8011,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>112395</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>145415</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>147955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>669925</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>141605</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="圆角矩形 63"/>
+        <xdr:cNvPr id="136" name="下箭头 135"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13058775" y="13675995"/>
-          <a:ext cx="7192645" cy="2620010"/>
+          <a:off x="11480165" y="9377680"/>
+          <a:ext cx="487045" cy="4639310"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 8922"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>Memo.resquests</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>232410</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>90805</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="圆角矩形 64"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13344525" y="14111605"/>
-          <a:ext cx="2522220" cy="1791970"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 13199"/>
-          </a:avLst>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -7663,19 +8051,20 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr/>
+        <a:bodyPr anchor="ctr" anchorCtr="false"/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>request </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>----one of memo.requests</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            </a:rPr>
+            <a:t>TIME</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+            <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7683,1798 +8072,581 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>292735</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>57785</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>24765</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>8255</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="圆角矩形标注 65"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19898995" y="13011785"/>
-          <a:ext cx="1129665" cy="560070"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -45347"/>
-            <a:gd name="adj2" fmla="val 66510"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>channel type:</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>request</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>631190</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>90170</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>308610</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="圆角矩形 66"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17367885" y="14110970"/>
-          <a:ext cx="2522220" cy="1791970"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 13199"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>request </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>----one of memo.requests</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>107315</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>107315</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1022985" cy="280035"/>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="文本框 67"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16132810" y="14890115"/>
-          <a:ext cx="1022985" cy="280035"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>。。。。。。</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>543560</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>140335</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>262890</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="圆角矩形 68"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13655675" y="14618335"/>
-          <a:ext cx="1921510" cy="913765"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 13199"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>response   chan&lt;-    result </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>219710</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>140335</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="圆角矩形 69"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17667605" y="14618335"/>
-          <a:ext cx="1921510" cy="913765"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 13199"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>response   chan&lt;-    result </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>680720</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>281305</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="椭圆 71"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13792835" y="14964410"/>
-          <a:ext cx="384175" cy="405765"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="0"/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
-            <a:t>result</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="椭圆 72"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14239875" y="14964410"/>
-          <a:ext cx="384175" cy="405765"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
-            <a:t>result</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>119380</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>503555</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="椭圆 73"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14698980" y="14964410"/>
-          <a:ext cx="384175" cy="405765"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
-            <a:t>result</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>554990</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>204470</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="椭圆 74"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15134590" y="14964410"/>
-          <a:ext cx="384175" cy="405765"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
-            <a:t>result</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>4445</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="椭圆 75"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17779365" y="14964410"/>
-          <a:ext cx="384175" cy="405765"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
-            <a:t>result</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>67945</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>452120</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="椭圆 76"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18227040" y="14964410"/>
-          <a:ext cx="384175" cy="405765"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
-            <a:t>result</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>198755</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="椭圆 77"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18684875" y="14964410"/>
-          <a:ext cx="384175" cy="405765"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
-            <a:t>result</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>252095</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>636270</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="椭圆 78"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19122390" y="14964410"/>
-          <a:ext cx="384175" cy="405765"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
-            <a:t>result</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>448310</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>12065</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>484505</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>132715</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="111" name="组合 110"/>
+        <xdr:cNvPr id="96" name="组合 95"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22163405" y="12813665"/>
-          <a:ext cx="747395" cy="1035050"/>
-          <a:chOff x="34831" y="19771"/>
-          <a:chExt cx="1174" cy="1602"/>
+          <a:off x="11627485" y="14160500"/>
+          <a:ext cx="8006715" cy="3656965"/>
+          <a:chOff x="24139" y="21151"/>
+          <a:chExt cx="12503" cy="5593"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="86" name="组合 85"/>
+          <xdr:cNvPr id="94" name="组合 93"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
-          <a:xfrm rot="0">
-            <a:off x="34831" y="19771"/>
-            <a:ext cx="1175" cy="1189"/>
-            <a:chOff x="33614" y="21820"/>
-            <a:chExt cx="1178" cy="1212"/>
+          <a:xfrm>
+            <a:off x="24139" y="21429"/>
+            <a:ext cx="6659" cy="5315"/>
+            <a:chOff x="24140" y="21429"/>
+            <a:chExt cx="6659" cy="5316"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="84" name="流程图: 可选过程 83"/>
+            <xdr:cNvPr id="92" name="圆角矩形 91"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="33614" y="21820"/>
-              <a:ext cx="1179" cy="1212"/>
+              <a:off x="24140" y="22499"/>
+              <a:ext cx="5501" cy="4246"/>
             </a:xfrm>
-            <a:prstGeom prst="flowChartAlternateProcess">
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 8922"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                </a:rPr>
+                <a:t>Memo.resquests</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="圆角矩形标注 65"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="29179" y="21429"/>
+              <a:ext cx="1621" cy="918"/>
+            </a:xfrm>
+            <a:prstGeom prst="wedgeRoundRectCallout">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -45347"/>
+                <a:gd name="adj2" fmla="val 66510"/>
+                <a:gd name="adj3" fmla="val 16667"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN">
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                </a:rPr>
+                <a:t>channel type:</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN">
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN">
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                </a:rPr>
+                <a:t>request</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN">
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="圆角矩形 66"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="24733" y="23208"/>
+              <a:ext cx="4431" cy="2907"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 13199"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:sym typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t>request</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="" altLang="en-US" sz="1000">
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:sym typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+              <a:endParaRPr lang="" altLang="en-US" sz="1000">
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:sym typeface="+mn-ea"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                </a:rPr>
+                <a:t>one of memo.requests</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="70" name="圆角矩形 69"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="25309" y="24030"/>
+              <a:ext cx="3390" cy="1481"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 13199"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                </a:rPr>
+                <a:t>response  chan&lt;-  result </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="81" name="椭圆 80"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="26714" y="24596"/>
+              <a:ext cx="600" cy="618"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
@@ -9493,60 +8665,7 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr anchor="b" anchorCtr="0"/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>ready</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="80" name="椭圆 79"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="33888" y="22016"/>
-              <a:ext cx="602" cy="617"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent2">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent2"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent2"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="0"/>
+            <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="false"/>
             <a:lstStyle>
               <a:defPPr>
                 <a:defRPr lang="zh-CN">
@@ -9649,114 +8768,1224 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
-                <a:t>result</a:t>
+                <a:rPr lang="en-US" altLang="en-US" sz="800">
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                </a:rPr>
+                <a:t>res</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
+              <a:endParaRPr lang="en-US" altLang="en-US" sz="800">
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="110" name="文本框 109"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="35057" y="20959"/>
-            <a:ext cx="774" cy="414"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-              <a:t>entry</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>220345</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>256540</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="130" name="组合 129"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="24069040" y="12835890"/>
-          <a:ext cx="747395" cy="1045845"/>
-          <a:chOff x="37689" y="18983"/>
-          <a:chExt cx="1174" cy="1614"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="129" name="组合 128"/>
+          <xdr:cNvPr id="95" name="组合 94"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="37689" y="18983"/>
-            <a:ext cx="1175" cy="1162"/>
-            <a:chOff x="37690" y="18983"/>
-            <a:chExt cx="1174" cy="1162"/>
+            <a:off x="28698" y="21151"/>
+            <a:ext cx="7944" cy="4183"/>
+            <a:chOff x="28699" y="21151"/>
+            <a:chExt cx="7944" cy="4183"/>
           </a:xfrm>
         </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="111" name="组合 110"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="32509" y="21151"/>
+              <a:ext cx="1181" cy="1607"/>
+              <a:chOff x="34831" y="19810"/>
+              <a:chExt cx="1263" cy="1546"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="86" name="组合 85"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm rot="0">
+                <a:off x="34831" y="19810"/>
+                <a:ext cx="1176" cy="1105"/>
+                <a:chOff x="33614" y="21860"/>
+                <a:chExt cx="1179" cy="1126"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp>
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="84" name="流程图: 可选过程 83"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="33614" y="21860"/>
+                  <a:ext cx="1179" cy="1126"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartAlternateProcess">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent2"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent2"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr anchor="b" anchorCtr="false"/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                      <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                    </a:rPr>
+                    <a:t>ready</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                    <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp>
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="80" name="椭圆 79"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="33888" y="22068"/>
+                  <a:ext cx="601" cy="565"/>
+                </a:xfrm>
+                <a:prstGeom prst="ellipse">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent2"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent2"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="false"/>
+                <a:lstStyle>
+                  <a:defPPr>
+                    <a:defRPr lang="zh-CN">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:defPPr>
+                  <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl1pPr>
+                  <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl2pPr>
+                  <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl3pPr>
+                  <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl4pPr>
+                  <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl5pPr>
+                  <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl6pPr>
+                  <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl7pPr>
+                  <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl8pPr>
+                  <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl9pPr>
+                </a:lstStyle>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+                      <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                      <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                    </a:rPr>
+                    <a:t>result</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800">
+                    <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                    <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp>
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="110" name="文本框 109"/>
+              <xdr:cNvSpPr txBox="true"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="34982" y="20958"/>
+                <a:ext cx="1112" cy="398"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                    <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                    <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  </a:rPr>
+                  <a:t>entry</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="130" name="组合 129"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="35267" y="21165"/>
+              <a:ext cx="1235" cy="1651"/>
+              <a:chOff x="37689" y="19002"/>
+              <a:chExt cx="1321" cy="1577"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="129" name="组合 128"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="37689" y="19002"/>
+                <a:ext cx="1175" cy="1060"/>
+                <a:chOff x="37690" y="19002"/>
+                <a:chExt cx="1174" cy="1060"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp>
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="115" name="流程图: 可选过程 114"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="37690" y="19002"/>
+                  <a:ext cx="1174" cy="1060"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartAlternateProcess">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent2"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent2"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr anchor="b" anchorCtr="false"/>
+                <a:lstStyle>
+                  <a:defPPr>
+                    <a:defRPr lang="zh-CN">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:defPPr>
+                  <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl1pPr>
+                  <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl2pPr>
+                  <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl3pPr>
+                  <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl4pPr>
+                  <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl5pPr>
+                  <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl6pPr>
+                  <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl7pPr>
+                  <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl8pPr>
+                  <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl9pPr>
+                </a:lstStyle>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                      <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                    </a:rPr>
+                    <a:t>ready</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                    <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp>
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="116" name="椭圆 115"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="37963" y="19220"/>
+                  <a:ext cx="601" cy="543"/>
+                </a:xfrm>
+                <a:prstGeom prst="ellipse">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent2"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent2"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="false"/>
+                <a:lstStyle>
+                  <a:defPPr>
+                    <a:defRPr lang="zh-CN">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:defPPr>
+                  <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl1pPr>
+                  <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl2pPr>
+                  <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl3pPr>
+                  <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl4pPr>
+                  <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl5pPr>
+                  <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl6pPr>
+                  <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl7pPr>
+                  <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl8pPr>
+                  <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl9pPr>
+                </a:lstStyle>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="" altLang="en-US" sz="800">
+                      <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                      <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                    </a:rPr>
+                    <a:t>res</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="" altLang="en-US" sz="800">
+                    <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                    <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp>
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="117" name="文本框 116"/>
+              <xdr:cNvSpPr txBox="true"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="37801" y="20184"/>
+                <a:ext cx="1209" cy="395"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                    <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                    <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  </a:rPr>
+                  <a:t>entry</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="120" name="直接箭头连接符 119"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="84" idx="3"/>
+              <a:endCxn id="115" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="true">
+              <a:off x="33608" y="21720"/>
+              <a:ext cx="1659" cy="5"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="arrow" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="115" name="流程图: 可选过程 114"/>
+            <xdr:cNvPr id="121" name="文本框 120"/>
+            <xdr:cNvSpPr txBox="true"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="34152" y="21302"/>
+              <a:ext cx="618" cy="437"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                </a:rPr>
+                <a:t>call</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="123" name="流程图: 决策 122"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="37690" y="18983"/>
-              <a:ext cx="1174" cy="1162"/>
+              <a:off x="34962" y="24255"/>
+              <a:ext cx="1681" cy="1079"/>
             </a:xfrm>
-            <a:prstGeom prst="flowChartAlternateProcess">
+            <a:prstGeom prst="flowChartDecision">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="false"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                </a:rPr>
+                <a:t>if ready</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                </a:rPr>
+                <a:t>closed</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="126" name="文本框 125"/>
+            <xdr:cNvSpPr txBox="true"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="35304" y="23338"/>
+              <a:ext cx="1378" cy="412"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                </a:rPr>
+                <a:t>deliver</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="127" name="文本框 126"/>
+            <xdr:cNvSpPr txBox="true"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="34365" y="24354"/>
+              <a:ext cx="621" cy="425"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                </a:rPr>
+                <a:t>yes</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="131" name="直接箭头连接符 130"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="115" idx="2"/>
+              <a:endCxn id="123" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="true">
+              <a:off x="35803" y="22293"/>
+              <a:ext cx="14" cy="1962"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="arrow" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="93" name="直接箭头连接符 92"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="123" idx="1"/>
+              <a:endCxn id="70" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="true">
+              <a:off x="28699" y="24795"/>
+              <a:ext cx="6263" cy="36"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="arrow" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="87" name="椭圆 86"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="32305" y="24451"/>
+              <a:ext cx="591" cy="610"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
@@ -9775,7 +10004,7 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr anchor="b" anchorCtr="0"/>
+            <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="false"/>
             <a:lstStyle>
               <a:defPPr>
                 <a:defRPr lang="zh-CN">
@@ -9878,1472 +10107,21 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
+                <a:rPr lang="en-US" altLang="en-US" sz="800">
+                  <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                  <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
                 </a:rPr>
-                <a:t>ready</a:t>
+                <a:t>res</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:endParaRPr lang="en-US" altLang="en-US" sz="800">
+                <a:latin typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
+                <a:cs typeface="Fira Code" panose="020B0809050000020004" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="116" name="椭圆 115"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="37963" y="19170"/>
-              <a:ext cx="601" cy="593"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent2">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent2"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent2"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="0"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="zh-CN">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                </a:defRPr>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
-                <a:t>result</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
       </xdr:grpSp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="117" name="文本框 116"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="37916" y="20185"/>
-            <a:ext cx="774" cy="413"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-              <a:t>entry</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>90170</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>219710</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>104140</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="直接箭头连接符 119"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="84" idx="3"/>
-          <a:endCxn id="115" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22912070" y="13196570"/>
-          <a:ext cx="1156335" cy="13970"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>169545</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>133985</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="392430" cy="268605"/>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="文本框 120"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23307040" y="12935585"/>
-          <a:ext cx="392430" cy="268605"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>call</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>137795</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>39370</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="流程图: 决策 122"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23986490" y="14198600"/>
-          <a:ext cx="916305" cy="623570"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>if ready</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>closed</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="125" name="肘形连接符 124"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="123" idx="2"/>
-          <a:endCxn id="70" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="21889720" y="12521565"/>
-          <a:ext cx="253365" cy="4853305"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>274955</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>65405</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="595630" cy="269240"/>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="文本框 125"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23412450" y="15153005"/>
-          <a:ext cx="595630" cy="269240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>deliver</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>219710</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>27305</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="椭圆 127"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20841970" y="14883765"/>
-          <a:ext cx="381635" cy="383540"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
-            <a:t>result</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>630555</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="400050" cy="265430"/>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="文本框 126"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24479250" y="14817090"/>
-          <a:ext cx="400050" cy="265430"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>yes</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>610235</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>31115</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>621665</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="直接箭头连接符 130"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24458930" y="13594715"/>
-          <a:ext cx="11430" cy="629285"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>524510</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>194945</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>27305</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="椭圆 131"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21528405" y="14883765"/>
-          <a:ext cx="381635" cy="383540"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
-            <a:t>result</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>487045</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>157480</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>27305</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="椭圆 132"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22202140" y="14883765"/>
-          <a:ext cx="381635" cy="383540"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
-            <a:t>result</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>349885</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>20320</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>27305</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="椭圆 133"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22776180" y="14883765"/>
-          <a:ext cx="381635" cy="383540"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
-            <a:t>result</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>145415</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>147955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="下箭头 135"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12235815" y="8834755"/>
-          <a:ext cx="487045" cy="4134485"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr anchor="ctr" anchorCtr="0"/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>TIME</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11407,7 +10185,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -11428,9 +10206,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="true"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -11451,7 +10229,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -11521,7 +10299,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -11547,7 +10325,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -11600,21 +10378,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="S59:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="AH58" sqref="AH58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="19" max="19" width="4.36607142857143" customWidth="1"/>
-    <col min="20" max="20" width="11.0178571428571" customWidth="1"/>
-    <col min="21" max="21" width="4.72321428571429" customWidth="1"/>
-    <col min="22" max="22" width="4.89285714285714" customWidth="1"/>
-    <col min="23" max="23" width="10.3303571428571" customWidth="1"/>
+    <col min="19" max="19" width="4.36190476190476" customWidth="true"/>
+    <col min="20" max="20" width="11.0190476190476" customWidth="true"/>
+    <col min="21" max="21" width="4.72380952380952" customWidth="true"/>
+    <col min="22" max="22" width="4.8952380952381" customWidth="true"/>
+    <col min="23" max="23" width="10.3333333333333" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="59" spans="19:24">
@@ -11632,13 +10410,11 @@
       <c r="S63" t="s">
         <v>3</v>
       </c>
-      <c r="T63"/>
-      <c r="U63"/>
       <c r="X63" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="19:24">
+    <row r="64" ht="16.5" spans="19:24">
       <c r="S64" t="s">
         <v>5</v>
       </c>
@@ -11652,29 +10428,24 @@
       <c r="S65" t="s">
         <v>7</v>
       </c>
-      <c r="T65"/>
-      <c r="U65"/>
       <c r="X65" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="20:24">
+    <row r="66" ht="16.5" spans="20:24">
       <c r="T66" t="s">
         <v>9</v>
       </c>
-      <c r="U66"/>
       <c r="V66" s="1"/>
       <c r="X66" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="20:24">
+    <row r="67" ht="16.5" spans="20:24">
       <c r="T67" t="s">
         <v>11</v>
       </c>
-      <c r="U67"/>
       <c r="V67" s="2"/>
-      <c r="W67"/>
       <c r="X67" s="2" t="s">
         <v>12</v>
       </c>
@@ -11722,7 +10493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="19:24">
+    <row r="74" ht="16.5" spans="19:24">
       <c r="S74" t="s">
         <v>24</v>
       </c>
@@ -11746,7 +10517,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="21:24">
+    <row r="77" ht="16.5" spans="21:24">
       <c r="U77" t="s">
         <v>29</v>
       </c>
